--- a/people_reports/Research_80.xlsx
+++ b/people_reports/Research_80.xlsx
@@ -500,10 +500,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lenert-les</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leslie Lenert</t>
+          <t>Les Lenert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
